--- a/biology/Zoologie/Andrène_barbue/Andrène_barbue.xlsx
+++ b/biology/Zoologie/Andrène_barbue/Andrène_barbue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A8ne_barbue</t>
+          <t>Andrène_barbue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrena barbilabris
-L'Andrène barbue[2] (Andrena barbilabris) est une espèce d'andrènes de la famille des Andrenidae. Cette espèce est présente en Europe, dans le Nord de l'Asie (sauf la Chine) et en Amérique du Nord[3],[4],[5].
+L'Andrène barbue (Andrena barbilabris) est une espèce d'andrènes de la famille des Andrenidae. Cette espèce est présente en Europe, dans le Nord de l'Asie (sauf la Chine) et en Amérique du Nord.
 </t>
         </is>
       </c>
